--- a/otz/duplicates.xlsx
+++ b/otz/duplicates.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="duplicate" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="duplikatlar" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,53 +436,353 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code3</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>code3_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>branchName</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>depName</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>depCode</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>profName</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>profCode</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rate_count</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rate_count_bp</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>dublicate_count</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Angren</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Axborot texnologiyalari</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Asaka</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Normativ ma’lumotlarni yuritish guruhi</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>43222</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NMM SAP tizimdagi maʼlumotlar boʻyicha mutaxassis</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Axborot texnologiyalari</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Asaka</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>136</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Normativ ma’lumotlarni yuritish guruhi</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>43222</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SAP boshqaruvi boʻyicha mutaxassis</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Toshkent(Asosiy ofis)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>26</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Axborot texnologiyalari</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Asaka</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SAP tizimini qo‘llab-quvvatlash guruhi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>43221</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sotishni boshqarish boʻyicha qoʻllab-quvvatlash liniyasi mutaxassisi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Xorazm</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>651</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ishlab chiqarishni taʼminlash</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Asaka</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>O‘rta va mayda turdagi materiallar saqlash bo‘linmasi (2-liniya A smena)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72624</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tayyorlov bo‘limi brigadiri (saqlash bo‘yicha)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>040</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ishlab chiqarishni taʼminlash</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Asaka</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>O‘rta va mayda turdagi materiallar saqlash bo‘linmasi (2-liniya B smena)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72625</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tayyorlov bo‘limi brigadiri (saqlash bo‘yicha)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>040</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ishlab chiqarishni taʼminlash</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Asaka</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tashqi omborlarda materiallar saqlash va CKD bo‘limi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72800</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Boʻlim boshligʻi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
